--- a/03_AD/MNMG/MNMG_CODING_TABLE_RNAV.xlsx
+++ b/03_AD/MNMG/MNMG_CODING_TABLE_RNAV.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,30 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18120" windowHeight="10740" tabRatio="599" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="6870" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="SAMOG_STAR" sheetId="14" r:id="rId1"/>
+    <sheet name="EMARI_STAR" sheetId="14" r:id="rId1"/>
     <sheet name="RAKEL_STAR" sheetId="13" r:id="rId2"/>
     <sheet name="KOPAL_STAR" sheetId="12" r:id="rId3"/>
     <sheet name="RNAV (RNP) RWY 10" sheetId="15" r:id="rId4"/>
     <sheet name="AD CHART NOTES" sheetId="16" r:id="rId5"/>
     <sheet name="RNAV (RNP) RWY 25" sheetId="6" r:id="rId6"/>
     <sheet name="STAR Routing" sheetId="11" r:id="rId7"/>
+    <sheet name="SID_CONV1" sheetId="17" r:id="rId8"/>
+    <sheet name="SID_CONV2" sheetId="18" r:id="rId9"/>
+    <sheet name="SID_CONV3" sheetId="19" r:id="rId10"/>
+    <sheet name="SID_CONV4" sheetId="20" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EMARI_STAR!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">KOPAL_STAR!$A$1:$M$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">RAKEL_STAR!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'RNAV (RNP) RWY 10'!$A$1:$N$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'RNAV (RNP) RWY 25'!$A$1:$N$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SAMOG_STAR!#REF!</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="256">
   <si>
     <t>Designator</t>
   </si>
@@ -367,6 +371,9 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">From </t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -375,7 +382,480 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. "Cleared xxx Arrival":</t>
+      <t>RAKEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on track 216° to HUMOL, then XOLOT - FONSE - MAJOA - DANTO  to MANUA or expect waypoint to final approach assigned by ATC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KAVLO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on track 248° to HUMOL, then XOLOT - FONSE - MAJOA - DANTO  to MANUA or expect waypoint to final approach assigned by ATC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LORMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on track 277° to HUMOL, then XOLOT - FONSE - MAJOA - DANTO  to MANUA or expect waypoint to final approach assigned by ATC</t>
+    </r>
+  </si>
+  <si>
+    <t>RAKEL1A</t>
+  </si>
+  <si>
+    <t>HUMOL</t>
+  </si>
+  <si>
+    <t>XOLOT</t>
+  </si>
+  <si>
+    <t>FONSE</t>
+  </si>
+  <si>
+    <t>0°47' W</t>
+  </si>
+  <si>
+    <t>0°44' W</t>
+  </si>
+  <si>
+    <t>RAKEL</t>
+  </si>
+  <si>
+    <t>1°14' W</t>
+  </si>
+  <si>
+    <t>130356N</t>
+  </si>
+  <si>
+    <t>0854728W</t>
+  </si>
+  <si>
+    <t>121747.8968N</t>
+  </si>
+  <si>
+    <t>0862100.3471W</t>
+  </si>
+  <si>
+    <t>121821.6813N</t>
+  </si>
+  <si>
+    <t>0862605.1739W</t>
+  </si>
+  <si>
+    <t>121855.3717N</t>
+  </si>
+  <si>
+    <t>0863109.7285W</t>
+  </si>
+  <si>
+    <t>KAVLO1A</t>
+  </si>
+  <si>
+    <t>KAVLO</t>
+  </si>
+  <si>
+    <t>124259N</t>
+  </si>
+  <si>
+    <t>0844312W</t>
+  </si>
+  <si>
+    <t>1°26' W</t>
+  </si>
+  <si>
+    <t>LORMA1A</t>
+  </si>
+  <si>
+    <t>LORMA</t>
+  </si>
+  <si>
+    <t>LOVAG</t>
+  </si>
+  <si>
+    <t>1°37' W</t>
+  </si>
+  <si>
+    <t>120318N</t>
+  </si>
+  <si>
+    <t>0845100W</t>
+  </si>
+  <si>
+    <t>121008.2569N</t>
+  </si>
+  <si>
+    <t>0850912.8477W</t>
+  </si>
+  <si>
+    <t>DIRIA</t>
+  </si>
+  <si>
+    <t>ELEAS</t>
+  </si>
+  <si>
+    <t>TIGRI</t>
+  </si>
+  <si>
+    <t>MARLA</t>
+  </si>
+  <si>
+    <t>0°41' W</t>
+  </si>
+  <si>
+    <t>0°37' W</t>
+  </si>
+  <si>
+    <t>115413.4652N</t>
+  </si>
+  <si>
+    <t>0861850.7493W</t>
+  </si>
+  <si>
+    <t>120100.163N</t>
+  </si>
+  <si>
+    <t>0862622.7884W</t>
+  </si>
+  <si>
+    <t>120256.9384N</t>
+  </si>
+  <si>
+    <t>0863259.1088W</t>
+  </si>
+  <si>
+    <t>IAF MANUA</t>
+  </si>
+  <si>
+    <t>RNAV (GNSS) RWY 10</t>
+  </si>
+  <si>
+    <t>(IAF)
+MANUA</t>
+  </si>
+  <si>
+    <t>(IF)
+MG513</t>
+  </si>
+  <si>
+    <t>(FAF)
+MG512</t>
+  </si>
+  <si>
+    <t>RW10</t>
+  </si>
+  <si>
+    <t>-3.1°/50'</t>
+  </si>
+  <si>
+    <t>-3.1°</t>
+  </si>
+  <si>
+    <t>(MAHF)
+HUMOL</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>0°46' W</t>
+  </si>
+  <si>
+    <t>0°49' W</t>
+  </si>
+  <si>
+    <t>0°45' W</t>
+  </si>
+  <si>
+    <t>RWY</t>
+  </si>
+  <si>
+    <t>HDG</t>
+  </si>
+  <si>
+    <t>THR</t>
+  </si>
+  <si>
+    <t>096.3°</t>
+  </si>
+  <si>
+    <t>276.3°</t>
+  </si>
+  <si>
+    <t>120834.186N
+0861046.145W</t>
+  </si>
+  <si>
+    <t>120825.207N
+0860925.864W</t>
+  </si>
+  <si>
+    <t>RWY AND PLATFORMS
+PCN 71/F/A/X/T</t>
+  </si>
+  <si>
+    <t>PCN</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>F/A/X/T</t>
+  </si>
+  <si>
+    <t>TAXIWAY</t>
+  </si>
+  <si>
+    <t>RESISTANCE</t>
+  </si>
+  <si>
+    <t>RWY10</t>
+  </si>
+  <si>
+    <t>RWY28</t>
+  </si>
+  <si>
+    <t>VOR</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>LOC (GS OUT)</t>
+  </si>
+  <si>
+    <t>1.2 Km</t>
+  </si>
+  <si>
+    <t>1.6 Km</t>
+  </si>
+  <si>
+    <t>3.2 Km</t>
+  </si>
+  <si>
+    <t>TAKE OFF</t>
+  </si>
+  <si>
+    <t>GND Speed-KT</t>
+  </si>
+  <si>
+    <t>5.0% V/v (fpm)</t>
+  </si>
+  <si>
+    <t>7.0% V7v (fpm)</t>
+  </si>
+  <si>
+    <t>This SID requires minimum climb gradients:
+7.0% (425' per NM) to 2000', then 5.0% (300' per NM) to JULIR, TAGOM</t>
+  </si>
+  <si>
+    <t>TAGOM1</t>
+  </si>
+  <si>
+    <t>TAGOM1 TRANSITIONS</t>
+  </si>
+  <si>
+    <t>JULIR1</t>
+  </si>
+  <si>
+    <t>JULIR1 TRANSITIONS</t>
+  </si>
+  <si>
+    <t>POZOL</t>
+  </si>
+  <si>
+    <t>ALTEG</t>
+  </si>
+  <si>
+    <t>TUKOR</t>
+  </si>
+  <si>
+    <t>LIBIS</t>
+  </si>
+  <si>
+    <t>TALAG</t>
+  </si>
+  <si>
+    <t>TUGET</t>
+  </si>
+  <si>
+    <t>BTO</t>
+  </si>
+  <si>
+    <t>From ILESU turn LEFT on heading 309° to LIBIS</t>
+  </si>
+  <si>
+    <t>From ILESU turn LEFT on heading 338° to TALAG</t>
+  </si>
+  <si>
+    <t>From ILESU turn RIGHT on heading 340° to TUGET</t>
+  </si>
+  <si>
+    <t>From ILESU turn RIGHT on heading 354° to BTO</t>
+  </si>
+  <si>
+    <t>From TAGOM turn RIGHT on heading 296° to POZOL, then direct CAT</t>
+  </si>
+  <si>
+    <t>From TAGOM turn RIGHT on heading 289° to ALTEG</t>
+  </si>
+  <si>
+    <t>From TAGOM turn RIGHT on heading 303° to TUKOR</t>
+  </si>
+  <si>
+    <t>Maintain runway heading to MGA 5 DME and 2000' or above then climbing turn RIGHT direct to MASAY then on heading 277° to TAGOM and continue on the assigned transition</t>
+  </si>
+  <si>
+    <t>Maintain runway heading to MGA 5 DME and 2000' or above then climbing turn LEFT direct to JULIR then on heading 329° to ILESU and continue on the assigned transition</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>This transition will be used just for flights at 19000FT AMSL or below</t>
+  </si>
+  <si>
+    <t>NAGOR1</t>
+  </si>
+  <si>
+    <t>Maintain runway heading to MGA 5 DME and 2000' or above then climbing turn LEFT direct to MANGO then turn RIGHT on heading 032° to NAGOR</t>
+  </si>
+  <si>
+    <t>NAGOR1 TRANSITIONS</t>
+  </si>
+  <si>
+    <t>SELEK</t>
+  </si>
+  <si>
+    <t>From NAGOR turn LEFT on heading 023° to SELEK</t>
+  </si>
+  <si>
+    <t>DAVIB1</t>
+  </si>
+  <si>
+    <t>Maintain runway heading to MGA 5 DME and 2000' or above then continue on MGA R-093° to DAVIB</t>
+  </si>
+  <si>
+    <t>TILIK1</t>
+  </si>
+  <si>
+    <t>Maintain runway heading to MGA 5 DME and 2000' or above then climbing turn LEFT on heading 062° to MUSUN, then turn LEFT on heading 042° to TILIK</t>
+  </si>
+  <si>
+    <t>This SID requires minimum climb gradients:
+7.0% (425' per NM) to 2000', then 5.0% (300' per NM) to MANGO</t>
+  </si>
+  <si>
+    <t>This SID requires minimum climb gradients:
+7.0% (425' per NM) to 2000', then 5.0% (300' per NM) to 10 DME</t>
+  </si>
+  <si>
+    <t>CHILE1</t>
+  </si>
+  <si>
+    <t>Maintain runway heading to MGA 5 DME and 2000' or above then climbing turn RIGHT on heading 117° to TAMAL, then turn RIGHT on heading 133° to CHILE</t>
+  </si>
+  <si>
+    <t>ULAPO1</t>
+  </si>
+  <si>
+    <t>Maintain runway heading to MGA 5 DME and 2000' or above then climbing turn RIGHT on heading 135° to BOLCA, then turn RIGHT on heading 150° to ULAPO</t>
+  </si>
+  <si>
+    <t>IMOLA1</t>
+  </si>
+  <si>
+    <t>Maintain runway heading to MGA 5 DME and 2000' or above then climbing turn RIGHT on heading 163° to IMOLA</t>
+  </si>
+  <si>
+    <t>ARLEN1</t>
+  </si>
+  <si>
+    <t>This SID requires minimum climb gradients:
+7.0% (425' per NM) to 2000', then 5.0% (300' per NM) to MASAY</t>
+  </si>
+  <si>
+    <t>Maintain runway heading to MGA 5 DME and 2000' or above then climbing turn RIGHT directo to MASAY, then turn LEFT on heading 253° to ARLEN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. "Descend via STAR xxx":</t>
     </r>
     <r>
       <rPr>
@@ -415,6 +895,29 @@
     </r>
   </si>
   <si>
+    <t>6 000</t>
+  </si>
+  <si>
+    <t>- 6 000</t>
+  </si>
+  <si>
+    <t>@6 000</t>
+  </si>
+  <si>
+    <t>+5 000</t>
+  </si>
+  <si>
+    <t>@3 000</t>
+  </si>
+  <si>
+    <t>EMARI ONE ALPHA
+(BOLCA, BOLCA 1 A)</t>
+  </si>
+  <si>
+    <t>LISPA ONE ALPHA
+(SAMOG, SAMOG 1 A)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">From </t>
     </r>
@@ -427,7 +930,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RAKEL</t>
+      <t>EMARI</t>
     </r>
     <r>
       <rPr>
@@ -437,7 +940,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> on track 216° to HUMOL, then XOLOT - FONSE - MAJOA - DANTO  to MANUA or expect waypoint to final approach assigned by ATC</t>
+      <t xml:space="preserve"> on track 290° to DIRIA then on 313° track to ELEAS then TIGRI - MARLA - MAJOA - DANTO to MANUA or expect waypoint to final approach assigned by ATC</t>
     </r>
   </si>
   <si>
@@ -453,7 +956,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>KAVLO</t>
+      <t>LISPA</t>
     </r>
     <r>
       <rPr>
@@ -463,386 +966,77 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> on track 248° to HUMOL, then XOLOT - FONSE - MAJOA - DANTO  to MANUA or expect waypoint to final approach assigned by ATC</t>
+      <t xml:space="preserve"> on track 304° to DIRIA then on 313° track to ELEAS then TIGRI - MARLA - MAJOA - DANTO to MANUA or expect waypoint to final approach assigned by ATC</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">From </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LORMA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on track 277° to HUMOL, then XOLOT - FONSE - MAJOA - DANTO  to MANUA or expect waypoint to final approach assigned by ATC</t>
-    </r>
-  </si>
-  <si>
-    <t>RAKEL1A</t>
-  </si>
-  <si>
-    <t>HUMOL</t>
-  </si>
-  <si>
-    <t>XOLOT</t>
-  </si>
-  <si>
-    <t>FONSE</t>
-  </si>
-  <si>
-    <t>0°47' W</t>
-  </si>
-  <si>
-    <t>0°44' W</t>
-  </si>
-  <si>
-    <t>RAKEL</t>
-  </si>
-  <si>
-    <t>1°14' W</t>
-  </si>
-  <si>
-    <t>130356N</t>
-  </si>
-  <si>
-    <t>0854728W</t>
-  </si>
-  <si>
-    <t>121747.8968N</t>
-  </si>
-  <si>
-    <t>0862100.3471W</t>
-  </si>
-  <si>
-    <t>121821.6813N</t>
-  </si>
-  <si>
-    <t>0862605.1739W</t>
-  </si>
-  <si>
-    <t>121855.3717N</t>
-  </si>
-  <si>
-    <t>0863109.7285W</t>
-  </si>
-  <si>
-    <t>KAVLO1A</t>
-  </si>
-  <si>
-    <t>KAVLO</t>
-  </si>
-  <si>
-    <t>124259N</t>
-  </si>
-  <si>
-    <t>0844312W</t>
-  </si>
-  <si>
-    <t>1°26' W</t>
-  </si>
-  <si>
-    <t>LORMA1A</t>
-  </si>
-  <si>
-    <t>LORMA</t>
-  </si>
-  <si>
-    <t>LOVAG</t>
-  </si>
-  <si>
-    <t>1°37' W</t>
-  </si>
-  <si>
-    <t>120318N</t>
-  </si>
-  <si>
-    <t>0845100W</t>
-  </si>
-  <si>
-    <t>121008.2569N</t>
-  </si>
-  <si>
-    <t>0850912.8477W</t>
-  </si>
-  <si>
-    <t>SAMOG1A</t>
-  </si>
-  <si>
-    <t>SAMOG</t>
-  </si>
-  <si>
-    <t>DIRIA</t>
-  </si>
-  <si>
-    <t>ELEAS</t>
-  </si>
-  <si>
-    <t>TIGRI</t>
-  </si>
-  <si>
-    <t>MARLA</t>
-  </si>
-  <si>
-    <t>1°01' W</t>
-  </si>
-  <si>
-    <t>0°41' W</t>
-  </si>
-  <si>
-    <t>0°37' W</t>
-  </si>
-  <si>
-    <t>BOLCA ONE ALPHA
-(BOLCA, BOLCA 1 A)</t>
-  </si>
-  <si>
-    <t>SAMOG ONE ALPHA
-(SAMOG, SAMOG 1 A)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">From </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BOLCA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on track 297° to DIRIA then on 313° track to ELEAS then TIGRI - MARLA - MAJOA - DANTO to MANUA or expect waypoint to final approach assigned by ATC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">From </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SAMOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on track 313° to DIRIA then on 313° track to ELEAS then TIGRI - MARLA - MAJOA - DANTO to MANUA or expect waypoint to final approach assigned by ATC</t>
-    </r>
-  </si>
-  <si>
-    <t>BOLCA1A</t>
-  </si>
-  <si>
-    <t>1°10' W</t>
-  </si>
-  <si>
-    <t>115413.4652N</t>
-  </si>
-  <si>
-    <t>0861850.7493W</t>
-  </si>
-  <si>
-    <t>120100.163N</t>
-  </si>
-  <si>
-    <t>0862622.7884W</t>
-  </si>
-  <si>
-    <t>120222.80N</t>
-  </si>
-  <si>
-    <t>0862754.60W</t>
-  </si>
-  <si>
-    <t>120256.9384N</t>
-  </si>
-  <si>
-    <t>0863259.1088W</t>
-  </si>
-  <si>
-    <t>111713.6887N</t>
-  </si>
-  <si>
-    <t>0853805.1630W</t>
-  </si>
-  <si>
-    <t>BOLCA</t>
-  </si>
-  <si>
-    <t>112822.6259N</t>
-  </si>
-  <si>
-    <t>0852440.7956W</t>
-  </si>
-  <si>
-    <t>IAF MANUA</t>
-  </si>
-  <si>
-    <t>RNAV (GNSS) RWY 10</t>
-  </si>
-  <si>
-    <t>(IAF)
-MANUA</t>
-  </si>
-  <si>
-    <t>(IF)
-MG513</t>
-  </si>
-  <si>
-    <t>(FAF)
-MG512</t>
-  </si>
-  <si>
-    <t>RW10</t>
-  </si>
-  <si>
-    <t>-3.1°/50'</t>
-  </si>
-  <si>
-    <t>-3.1°</t>
-  </si>
-  <si>
-    <t>(MAHF)
-HUMOL</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>0°46' W</t>
-  </si>
-  <si>
-    <t>0°49' W</t>
-  </si>
-  <si>
-    <t>0°45' W</t>
-  </si>
-  <si>
-    <t>RWY</t>
-  </si>
-  <si>
-    <t>HDG</t>
-  </si>
-  <si>
-    <t>THR</t>
-  </si>
-  <si>
-    <t>096.3°</t>
-  </si>
-  <si>
-    <t>276.3°</t>
-  </si>
-  <si>
-    <t>120834.186N
-0861046.145W</t>
-  </si>
-  <si>
-    <t>120825.207N
-0860925.864W</t>
-  </si>
-  <si>
-    <t>RWY AND PLATFORMS
-PCN 71/F/A/X/T</t>
-  </si>
-  <si>
-    <t>PCN</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>F/A/X/T</t>
-  </si>
-  <si>
-    <t>TAXIWAY</t>
-  </si>
-  <si>
-    <t>RESISTANCE</t>
-  </si>
-  <si>
-    <t>RWY10</t>
-  </si>
-  <si>
-    <t>RWY28</t>
-  </si>
-  <si>
-    <t>VOR</t>
-  </si>
-  <si>
-    <t>ILS</t>
-  </si>
-  <si>
-    <t>LOC (GS OUT)</t>
-  </si>
-  <si>
-    <t>1.2 Km</t>
-  </si>
-  <si>
-    <t>1.6 Km</t>
-  </si>
-  <si>
-    <t>3.2 Km</t>
-  </si>
-  <si>
-    <t>TAKE OFF</t>
+    <t>EMARI1A</t>
+  </si>
+  <si>
+    <t>LISPA1A</t>
+  </si>
+  <si>
+    <t>120100.1630N</t>
+  </si>
+  <si>
+    <t>170223.2929N</t>
+  </si>
+  <si>
+    <t>0862754.8840W</t>
+  </si>
+  <si>
+    <t>EMARI</t>
+  </si>
+  <si>
+    <t>LISPA</t>
+  </si>
+  <si>
+    <t>113354N</t>
+  </si>
+  <si>
+    <t>0852018W</t>
+  </si>
+  <si>
+    <t>112324N</t>
+  </si>
+  <si>
+    <t>0852954W</t>
+  </si>
+  <si>
+    <t>1°16' W</t>
+  </si>
+  <si>
+    <t>1°08' W</t>
+  </si>
+  <si>
+    <t>+8 000</t>
+  </si>
+  <si>
+    <t>+2 800</t>
+  </si>
+  <si>
+    <t>@1 800</t>
+  </si>
+  <si>
+    <t>+3 000</t>
+  </si>
+  <si>
+    <t>120926.6843N</t>
+  </si>
+  <si>
+    <t>0861836.7884W</t>
+  </si>
+  <si>
+    <t>120906.3360N</t>
+  </si>
+  <si>
+    <t>0861534.1254W</t>
+  </si>
+  <si>
+    <t>120834.1864N</t>
+  </si>
+  <si>
+    <t>0861046.1465W</t>
   </si>
 </sst>
 </file>
@@ -852,7 +1046,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -914,6 +1108,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -965,7 +1166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1079,11 +1280,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1175,11 +1542,72 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,21 +1639,77 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1568,10 +2052,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:M21"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1597,28 +2081,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="A1" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="49" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1676,23 +2160,23 @@
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="U2" s="31"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>12</v>
@@ -1714,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>69</v>
@@ -1737,23 +2221,23 @@
       <c r="S3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="31"/>
+      <c r="U3" s="49"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>12</v>
@@ -1765,17 +2249,17 @@
       <c r="H4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="10">
-        <v>8000</v>
-      </c>
-      <c r="J4" s="10">
-        <v>54.4</v>
+      <c r="I4" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" s="86">
+        <v>60.9</v>
       </c>
       <c r="K4" s="10">
         <v>250</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>69</v>
@@ -1789,37 +2273,37 @@
       </c>
       <c r="P4" s="16" t="str">
         <f t="shared" ref="P4:P10" si="2">MID(L3,3,2)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" ref="Q4:Q10" si="3">-(O4+P4/60)</f>
-        <v>-1.1666666666666667</v>
+        <v>-1.2666666666666666</v>
       </c>
       <c r="R4" s="17">
         <f t="shared" ref="R4:R10" si="4">N4-Q4</f>
-        <v>313.56666666666666</v>
+        <v>313.66666666666663</v>
       </c>
       <c r="S4" s="16" t="str">
         <f t="shared" ref="S4:S10" si="5">TEXT(R4,"000")&amp;TEXT(N4," (000.0)")</f>
         <v>314 (312.4)</v>
       </c>
-      <c r="U4" s="31"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>12</v>
@@ -1831,8 +2315,8 @@
       <c r="H5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="10">
-        <v>6000</v>
+      <c r="I5" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="J5" s="13">
         <v>10</v>
@@ -1841,7 +2325,7 @@
         <v>250</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>69</v>
@@ -1869,23 +2353,23 @@
         <f t="shared" si="5"/>
         <v>313 (312.4)</v>
       </c>
-      <c r="U5" s="31"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>144</v>
+      <c r="D6" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>237</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>12</v>
@@ -1897,8 +2381,8 @@
       <c r="H6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="10">
-        <v>6000</v>
+      <c r="I6" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="J6" s="13">
         <v>2</v>
@@ -1907,7 +2391,7 @@
         <v>250</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>69</v>
@@ -1935,23 +2419,23 @@
         <f t="shared" si="5"/>
         <v>313 (312.4)</v>
       </c>
-      <c r="U6" s="31"/>
+      <c r="U6" s="49"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>12</v>
@@ -1963,8 +2447,8 @@
       <c r="H7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="10">
-        <v>6000</v>
+      <c r="I7" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="J7" s="13">
         <v>5</v>
@@ -1973,7 +2457,7 @@
         <v>250</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>69</v>
@@ -2001,11 +2485,11 @@
         <f t="shared" si="5"/>
         <v>277 (276.3)</v>
       </c>
-      <c r="U7" s="31"/>
+      <c r="U7" s="49"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>62</v>
@@ -2029,8 +2513,8 @@
       <c r="H8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="10">
-        <v>6000</v>
+      <c r="I8" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="J8" s="13">
         <v>8</v>
@@ -2067,11 +2551,11 @@
         <f t="shared" si="5"/>
         <v>007 (006.3)</v>
       </c>
-      <c r="U8" s="31"/>
+      <c r="U8" s="49"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>63</v>
@@ -2133,11 +2617,11 @@
         <f t="shared" si="5"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U9" s="31"/>
+      <c r="U9" s="49"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>64</v>
@@ -2161,8 +2645,8 @@
       <c r="H10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="10">
-        <v>3000</v>
+      <c r="I10" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="J10" s="13">
         <v>5</v>
@@ -2199,34 +2683,34 @@
         <f t="shared" si="5"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U10" s="31"/>
+      <c r="U10" s="49"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U11" s="31"/>
+      <c r="U11" s="49"/>
     </row>
     <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="A12" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="U12" s="31"/>
+      <c r="U12" s="49"/>
     </row>
     <row r="13" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2282,23 +2766,23 @@
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="U13" s="31"/>
+      <c r="U13" s="49"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>12</v>
@@ -2320,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>69</v>
@@ -2343,51 +2827,51 @@
       <c r="S14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="31"/>
+      <c r="U14" s="49"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>313 (312.4)</v>
+        <v>304 (302.4)</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="10">
-        <v>8000</v>
-      </c>
-      <c r="J15" s="10">
-        <v>54.4</v>
+      <c r="I15" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15" s="86">
+        <v>56.9</v>
       </c>
       <c r="K15" s="10">
         <v>250</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>69</v>
       </c>
       <c r="N15" s="28">
-        <v>312.39999999999998</v>
+        <v>302.39999999999998</v>
       </c>
       <c r="O15" s="16" t="str">
         <f t="shared" ref="O15:O21" si="8">MID(L14,1,1)</f>
@@ -2395,37 +2879,37 @@
       </c>
       <c r="P15" s="16" t="str">
         <f t="shared" ref="P15:P21" si="9">MID(L14,3,2)</f>
-        <v>01</v>
+        <v>08</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" ref="Q15:Q21" si="10">-(O15+P15/60)</f>
-        <v>-1.0166666666666666</v>
+        <v>-1.1333333333333333</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" ref="R15:R21" si="11">N15-Q15</f>
-        <v>313.41666666666663</v>
+        <v>303.5333333333333</v>
       </c>
       <c r="S15" s="16" t="str">
         <f t="shared" ref="S15:S21" si="12">TEXT(R15,"000")&amp;TEXT(N15," (000.0)")</f>
-        <v>313 (312.4)</v>
-      </c>
-      <c r="U15" s="31"/>
+        <v>304 (302.4)</v>
+      </c>
+      <c r="U15" s="49"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>12</v>
@@ -2437,8 +2921,8 @@
       <c r="H16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="10">
-        <v>6000</v>
+      <c r="I16" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="J16" s="13">
         <v>10</v>
@@ -2447,7 +2931,7 @@
         <v>250</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>69</v>
@@ -2475,23 +2959,23 @@
         <f t="shared" si="12"/>
         <v>313 (312.4)</v>
       </c>
-      <c r="U16" s="31"/>
+      <c r="U16" s="49"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>144</v>
+      <c r="D17" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>237</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>12</v>
@@ -2503,8 +2987,8 @@
       <c r="H17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="10">
-        <v>6000</v>
+      <c r="I17" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="J17" s="13">
         <v>2</v>
@@ -2513,7 +2997,7 @@
         <v>250</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>69</v>
@@ -2541,23 +3025,23 @@
         <f t="shared" si="12"/>
         <v>313 (312.4)</v>
       </c>
-      <c r="U17" s="31"/>
+      <c r="U17" s="49"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>12</v>
@@ -2569,8 +3053,8 @@
       <c r="H18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="10">
-        <v>6000</v>
+      <c r="I18" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="J18" s="13">
         <v>5</v>
@@ -2579,7 +3063,7 @@
         <v>250</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>69</v>
@@ -2607,11 +3091,11 @@
         <f t="shared" si="12"/>
         <v>277 (276.3)</v>
       </c>
-      <c r="U18" s="31"/>
+      <c r="U18" s="49"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>62</v>
@@ -2635,8 +3119,8 @@
       <c r="H19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="10">
-        <v>6000</v>
+      <c r="I19" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="J19" s="13">
         <v>8</v>
@@ -2673,11 +3157,11 @@
         <f t="shared" si="12"/>
         <v>007 (006.3)</v>
       </c>
-      <c r="U19" s="31"/>
+      <c r="U19" s="49"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>63</v>
@@ -2739,11 +3223,11 @@
         <f t="shared" si="12"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U20" s="31"/>
+      <c r="U20" s="49"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>64</v>
@@ -2767,8 +3251,8 @@
       <c r="H21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="10">
-        <v>3000</v>
+      <c r="I21" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="J21" s="13">
         <v>5</v>
@@ -2805,10 +3289,14 @@
         <f t="shared" si="12"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U21" s="31"/>
+      <c r="U21" s="49"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N22" s="29"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2818,6 +3306,384 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="8" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+    </row>
+    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="35">
+        <v>75</v>
+      </c>
+      <c r="D4" s="35">
+        <v>100</v>
+      </c>
+      <c r="E4" s="35">
+        <v>150</v>
+      </c>
+      <c r="F4" s="35">
+        <v>200</v>
+      </c>
+      <c r="G4" s="35">
+        <v>250</v>
+      </c>
+      <c r="H4" s="36">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="44">
+        <v>380</v>
+      </c>
+      <c r="D5" s="44">
+        <v>506</v>
+      </c>
+      <c r="E5" s="44">
+        <v>760</v>
+      </c>
+      <c r="F5" s="44">
+        <v>1013</v>
+      </c>
+      <c r="G5" s="44">
+        <v>1266</v>
+      </c>
+      <c r="H5" s="45">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="46">
+        <v>532</v>
+      </c>
+      <c r="D6" s="46">
+        <v>709</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1063</v>
+      </c>
+      <c r="F6" s="46">
+        <v>1418</v>
+      </c>
+      <c r="G6" s="46">
+        <v>1772</v>
+      </c>
+      <c r="H6" s="47">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+    </row>
+    <row r="11" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
+    </row>
+    <row r="15" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H14"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="8" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+    </row>
+    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="35">
+        <v>75</v>
+      </c>
+      <c r="D4" s="35">
+        <v>100</v>
+      </c>
+      <c r="E4" s="35">
+        <v>150</v>
+      </c>
+      <c r="F4" s="35">
+        <v>200</v>
+      </c>
+      <c r="G4" s="35">
+        <v>250</v>
+      </c>
+      <c r="H4" s="36">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="44">
+        <v>380</v>
+      </c>
+      <c r="D5" s="44">
+        <v>506</v>
+      </c>
+      <c r="E5" s="44">
+        <v>760</v>
+      </c>
+      <c r="F5" s="44">
+        <v>1013</v>
+      </c>
+      <c r="G5" s="44">
+        <v>1266</v>
+      </c>
+      <c r="H5" s="45">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="46">
+        <v>532</v>
+      </c>
+      <c r="D6" s="46">
+        <v>709</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1063</v>
+      </c>
+      <c r="F6" s="46">
+        <v>1418</v>
+      </c>
+      <c r="G6" s="46">
+        <v>1772</v>
+      </c>
+      <c r="H6" s="47">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+    </row>
+    <row r="11" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2855,21 +3721,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="A1" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -2931,25 +3797,25 @@
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="49" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>104</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>12</v>
@@ -2969,7 +3835,7 @@
         <v>250</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>69</v>
@@ -2992,23 +3858,23 @@
       <c r="S3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="31"/>
+      <c r="U3" s="49"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>12</v>
@@ -3020,8 +3886,8 @@
       <c r="H4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="10">
-        <v>6000</v>
+      <c r="I4" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="J4" s="10">
         <v>56.7</v>
@@ -3030,7 +3896,7 @@
         <v>250</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>69</v>
@@ -3058,23 +3924,23 @@
         <f>TEXT(R4,"000")&amp;TEXT(N4," (000.0)")</f>
         <v>216 (215.2)</v>
       </c>
-      <c r="U4" s="31"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>108</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>12</v>
@@ -3086,17 +3952,17 @@
       <c r="H5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="10">
-        <v>6000</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="13">
         <v>5</v>
       </c>
       <c r="K5" s="10">
         <v>250</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>69</v>
@@ -3124,23 +3990,23 @@
         <f>TEXT(R5,"000")&amp;TEXT(N5," (000.0)")</f>
         <v>277 (276.3)</v>
       </c>
-      <c r="U5" s="31"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>12</v>
@@ -3152,8 +4018,8 @@
       <c r="H6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="10">
-        <v>6000</v>
+      <c r="I6" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="J6" s="13">
         <v>5</v>
@@ -3190,11 +4056,11 @@
         <f>TEXT(R6,"000")&amp;TEXT(N6," (000.0)")</f>
         <v>277 (276.3)</v>
       </c>
-      <c r="U6" s="31"/>
+      <c r="U6" s="49"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>13</v>
@@ -3218,8 +4084,8 @@
       <c r="H7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="10">
-        <v>6000</v>
+      <c r="I7" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="J7" s="13">
         <v>8</v>
@@ -3256,11 +4122,11 @@
         <f t="shared" ref="S7:S8" si="7">TEXT(R7,"000")&amp;TEXT(N7," (000.0)")</f>
         <v>187 (186.3)</v>
       </c>
-      <c r="U7" s="31"/>
+      <c r="U7" s="49"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -3322,11 +4188,11 @@
         <f t="shared" si="7"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U8" s="31"/>
+      <c r="U8" s="49"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -3350,8 +4216,8 @@
       <c r="H9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="10">
-        <v>3000</v>
+      <c r="I9" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="J9" s="13">
         <v>5</v>
@@ -3388,34 +4254,34 @@
         <f t="shared" ref="S9" si="10">TEXT(R9,"000")&amp;TEXT(N9," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="U9" s="31"/>
+      <c r="U9" s="49"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U10" s="31"/>
+      <c r="U10" s="49"/>
     </row>
     <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="A11" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-      <c r="U11" s="31"/>
+      <c r="U11" s="49"/>
     </row>
     <row r="12" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -3471,23 +4337,23 @@
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="U12" s="31"/>
+      <c r="U12" s="49"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="E13" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>114</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>12</v>
@@ -3509,7 +4375,7 @@
         <v>250</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>69</v>
@@ -3532,23 +4398,23 @@
       <c r="S13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="31"/>
+      <c r="U13" s="49"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>12</v>
@@ -3560,8 +4426,8 @@
       <c r="H14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="10">
-        <v>6000</v>
+      <c r="I14" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="J14" s="10">
         <v>39.700000000000003</v>
@@ -3570,7 +4436,7 @@
         <v>250</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>69</v>
@@ -3598,23 +4464,23 @@
         <f>TEXT(R14,"000")&amp;TEXT(N14," (000.0)")</f>
         <v>248 (246.9)</v>
       </c>
-      <c r="U14" s="31"/>
+      <c r="U14" s="49"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>108</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>12</v>
@@ -3626,17 +4492,17 @@
       <c r="H15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="10">
-        <v>6000</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="I15" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J15" s="13">
         <v>5</v>
       </c>
       <c r="K15" s="10">
         <v>250</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>69</v>
@@ -3664,23 +4530,23 @@
         <f>TEXT(R15,"000")&amp;TEXT(N15," (000.0)")</f>
         <v>277 (276.3)</v>
       </c>
-      <c r="U15" s="31"/>
+      <c r="U15" s="49"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>12</v>
@@ -3692,8 +4558,8 @@
       <c r="H16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="10">
-        <v>6000</v>
+      <c r="I16" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="J16" s="13">
         <v>5</v>
@@ -3730,11 +4596,11 @@
         <f>TEXT(R16,"000")&amp;TEXT(N16," (000.0)")</f>
         <v>277 (276.3)</v>
       </c>
-      <c r="U16" s="31"/>
+      <c r="U16" s="49"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>13</v>
@@ -3758,8 +4624,8 @@
       <c r="H17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="10">
-        <v>6000</v>
+      <c r="I17" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="J17" s="13">
         <v>8</v>
@@ -3796,11 +4662,11 @@
         <f t="shared" ref="S17:S19" si="17">TEXT(R17,"000")&amp;TEXT(N17," (000.0)")</f>
         <v>187 (186.3)</v>
       </c>
-      <c r="U17" s="31"/>
+      <c r="U17" s="49"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>13</v>
@@ -3862,11 +4728,11 @@
         <f t="shared" si="17"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U18" s="31"/>
+      <c r="U18" s="49"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>13</v>
@@ -3890,8 +4756,8 @@
       <c r="H19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="10">
-        <v>3000</v>
+      <c r="I19" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="J19" s="13">
         <v>5</v>
@@ -3928,34 +4794,34 @@
         <f t="shared" si="17"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U19" s="31"/>
+      <c r="U19" s="49"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U20" s="31"/>
+      <c r="U20" s="49"/>
     </row>
     <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+      <c r="A21" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="U21" s="31"/>
+      <c r="U21" s="49"/>
     </row>
     <row r="22" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -4011,23 +4877,23 @@
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="U22" s="31"/>
+      <c r="U22" s="49"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>121</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>12</v>
@@ -4049,7 +4915,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>69</v>
@@ -4075,19 +4941,19 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>123</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>12</v>
@@ -4109,7 +4975,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>69</v>
@@ -4140,19 +5006,19 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>12</v>
@@ -4164,8 +5030,8 @@
       <c r="H25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="10">
-        <v>6000</v>
+      <c r="I25" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="J25" s="10">
         <v>39.700000000000003</v>
@@ -4174,7 +5040,7 @@
         <v>250</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>69</v>
@@ -4205,19 +5071,19 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>108</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>12</v>
@@ -4229,17 +5095,17 @@
       <c r="H26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="10">
-        <v>6000</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="I26" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" s="13">
         <v>5</v>
       </c>
       <c r="K26" s="10">
         <v>250</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>69</v>
@@ -4270,19 +5136,19 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>12</v>
@@ -4294,8 +5160,8 @@
       <c r="H27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="10">
-        <v>6000</v>
+      <c r="I27" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="J27" s="13">
         <v>5</v>
@@ -4335,7 +5201,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>13</v>
@@ -4359,8 +5225,8 @@
       <c r="H28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="10">
-        <v>6000</v>
+      <c r="I28" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="J28" s="13">
         <v>8</v>
@@ -4400,7 +5266,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>13</v>
@@ -4465,7 +5331,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>13</v>
@@ -4489,8 +5355,8 @@
       <c r="H30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="10">
-        <v>3000</v>
+      <c r="I30" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="J30" s="13">
         <v>5</v>
@@ -4574,21 +5440,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -4650,7 +5516,7 @@
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="49" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4710,7 +5576,7 @@
       <c r="S3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="31"/>
+      <c r="U3" s="49"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -4776,7 +5642,7 @@
         <f>TEXT(R4,"000")&amp;TEXT(N4," (000.0)")</f>
         <v>167 (166.2)</v>
       </c>
-      <c r="U4" s="31"/>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -4842,7 +5708,7 @@
         <f>TEXT(R5,"000")&amp;TEXT(N5," (000.0)")</f>
         <v>125 (124.3)</v>
       </c>
-      <c r="U5" s="31"/>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -4908,7 +5774,7 @@
         <f t="shared" ref="S6:S7" si="2">TEXT(R6,"000")&amp;TEXT(N6," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="U6" s="31"/>
+      <c r="U6" s="49"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -4974,34 +5840,34 @@
         <f t="shared" si="2"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U7" s="31"/>
+      <c r="U7" s="49"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U8" s="31"/>
+      <c r="U8" s="49"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="U9" s="31"/>
+      <c r="U9" s="49"/>
     </row>
     <row r="10" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -5057,7 +5923,7 @@
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="U10" s="31"/>
+      <c r="U10" s="49"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -5117,7 +5983,7 @@
       <c r="S11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="31"/>
+      <c r="U11" s="49"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -5183,7 +6049,7 @@
         <f>TEXT(R12,"000")&amp;TEXT(N12," (000.0)")</f>
         <v>125 (124.3)</v>
       </c>
-      <c r="U12" s="31"/>
+      <c r="U12" s="49"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -5249,7 +6115,7 @@
         <f>TEXT(R13,"000")&amp;TEXT(N13," (000.0)")</f>
         <v>125 (124.3)</v>
       </c>
-      <c r="U13" s="31"/>
+      <c r="U13" s="49"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -5315,7 +6181,7 @@
         <f t="shared" ref="S14:S15" si="6">TEXT(R14,"000")&amp;TEXT(N14," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="U14" s="31"/>
+      <c r="U14" s="49"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -5381,28 +6247,28 @@
         <f t="shared" si="6"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U15" s="31"/>
+      <c r="U15" s="49"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U16" s="31"/>
+      <c r="U16" s="49"/>
     </row>
     <row r="17" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U17" s="31"/>
+      <c r="U17" s="49"/>
     </row>
     <row r="18" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U18" s="31"/>
+      <c r="U18" s="49"/>
     </row>
     <row r="19" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U19" s="31"/>
+      <c r="U19" s="49"/>
     </row>
     <row r="20" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U20" s="31"/>
+      <c r="U20" s="49"/>
     </row>
     <row r="21" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U21" s="31"/>
+      <c r="U21" s="49"/>
     </row>
     <row r="22" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U22" s="31"/>
+      <c r="U22" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5422,8 +6288,8 @@
   </sheetPr>
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5450,22 +6316,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="A1" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -5530,22 +6396,26 @@
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="49" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
@@ -5555,8 +6425,8 @@
       <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8">
-        <v>3000</v>
+      <c r="I3" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="J3" s="30">
         <v>5</v>
@@ -5591,20 +6461,24 @@
       <c r="T3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="31"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>251</v>
+      </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
@@ -5615,8 +6489,8 @@
       <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8">
-        <v>2800</v>
+      <c r="I4" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="J4" s="12">
         <v>3.3</v>
@@ -5625,10 +6499,10 @@
         <v>12</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>22</v>
@@ -5656,20 +6530,24 @@
         <f>TEXT(S4,"000")&amp;TEXT(O4," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="V4" s="31"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+        <v>139</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
@@ -5680,8 +6558,8 @@
       <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="8">
-        <v>1800</v>
+      <c r="I5" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="J5" s="13">
         <v>3</v>
@@ -5690,10 +6568,10 @@
         <v>12</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>22</v>
@@ -5721,20 +6599,24 @@
         <f t="shared" ref="T5:T6" si="4">TEXT(S5,"000")&amp;TEXT(O5," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="V5" s="31"/>
+      <c r="V5" s="49"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
@@ -5746,7 +6628,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="8">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="J6" s="13">
         <v>4.7</v>
@@ -5755,10 +6637,10 @@
         <v>12</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>22</v>
@@ -5786,14 +6668,14 @@
         <f t="shared" si="4"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="V6" s="31"/>
+      <c r="V6" s="49"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
@@ -5814,8 +6696,8 @@
       <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="8">
-        <v>3000</v>
+      <c r="I7" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>12</v>
@@ -5855,20 +6737,24 @@
         <f t="shared" ref="T7" si="8">TEXT(S7,"000")&amp;TEXT(O7," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="V7" s="31"/>
+      <c r="V7" s="49"/>
     </row>
     <row r="8" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+        <v>143</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
@@ -5878,8 +6764,8 @@
       <c r="H8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="8">
-        <v>6000</v>
+      <c r="I8" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>12</v>
@@ -5888,7 +6774,7 @@
         <v>250</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>12</v>
@@ -5919,7 +6805,7 @@
         <f t="shared" ref="T8" si="12">TEXT(S8,"000")&amp;TEXT(O8," (000.0)")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V8" s="31"/>
+      <c r="V8" s="49"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O9" s="3"/>
@@ -5928,7 +6814,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="V9" s="31"/>
+      <c r="V9" s="49"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O10" s="3"/>
@@ -5937,7 +6823,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="V10" s="31"/>
+      <c r="V10" s="49"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O11" s="3"/>
@@ -5946,7 +6832,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="V11" s="31"/>
+      <c r="V11" s="49"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O12" s="3"/>
@@ -5955,7 +6841,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="V12" s="31"/>
+      <c r="V12" s="49"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O13" s="3"/>
@@ -5964,7 +6850,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="V13" s="31"/>
+      <c r="V13" s="49"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O14" s="3"/>
@@ -5973,7 +6859,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="V14" s="31"/>
+      <c r="V14" s="49"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O15" s="3"/>
@@ -5982,7 +6868,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="V15" s="31"/>
+      <c r="V15" s="49"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O16" s="3"/>
@@ -5991,7 +6877,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="V16" s="31"/>
+      <c r="V16" s="49"/>
     </row>
     <row r="17" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O17" s="3"/>
@@ -6000,7 +6886,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="V17" s="31"/>
+      <c r="V17" s="49"/>
     </row>
     <row r="18" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O18" s="3"/>
@@ -6009,7 +6895,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="V18" s="31"/>
+      <c r="V18" s="49"/>
     </row>
     <row r="19" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O19" s="3"/>
@@ -6018,7 +6904,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="V19" s="31"/>
+      <c r="V19" s="49"/>
     </row>
     <row r="20" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O20" s="3"/>
@@ -6027,7 +6913,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="V20" s="31"/>
+      <c r="V20" s="49"/>
     </row>
     <row r="21" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O21" s="3"/>
@@ -6036,7 +6922,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="V21" s="31"/>
+      <c r="V21" s="49"/>
     </row>
     <row r="22" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O22" s="3"/>
@@ -6045,7 +6931,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="V22" s="31"/>
+      <c r="V22" s="49"/>
     </row>
     <row r="23" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O23" s="3"/>
@@ -6054,7 +6940,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="V23" s="31"/>
+      <c r="V23" s="49"/>
     </row>
     <row r="24" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O24" s="3"/>
@@ -6110,214 +6996,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="43"/>
-    <col min="2" max="3" width="11" style="44"/>
-    <col min="4" max="4" width="16.75" style="44" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="44" customWidth="1"/>
-    <col min="6" max="6" width="11" style="44"/>
-    <col min="7" max="14" width="4.25" style="44" customWidth="1"/>
-    <col min="15" max="18" width="14.625" style="44" customWidth="1"/>
-    <col min="19" max="21" width="11" style="44"/>
+    <col min="1" max="1" width="11" style="31"/>
+    <col min="2" max="3" width="11" style="32"/>
+    <col min="4" max="4" width="16.75" style="32" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="32" customWidth="1"/>
+    <col min="6" max="6" width="11" style="32"/>
+    <col min="7" max="14" width="4.25" style="32" customWidth="1"/>
+    <col min="15" max="18" width="14.625" style="32" customWidth="1"/>
+    <col min="19" max="21" width="11" style="32"/>
     <col min="22" max="23" width="11" style="21"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="51">
+        <v>10</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="51"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="R5" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="51">
+        <v>28</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="33">
+        <v>73</v>
+      </c>
+      <c r="H6" s="33">
+        <v>73</v>
+      </c>
+      <c r="I6" s="33">
+        <v>58</v>
+      </c>
+      <c r="J6" s="33">
+        <v>80</v>
+      </c>
+      <c r="K6" s="33">
+        <v>24</v>
+      </c>
+      <c r="L6" s="33">
+        <v>78</v>
+      </c>
+      <c r="M6" s="33">
+        <v>36</v>
+      </c>
+      <c r="N6" s="33">
+        <v>32</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="51"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="46">
-        <v>10</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="L5" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="O5" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="P5" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q5" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="R5" s="45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="46">
-        <v>28</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="45">
-        <v>73</v>
-      </c>
-      <c r="H6" s="45">
-        <v>73</v>
-      </c>
-      <c r="I6" s="45">
-        <v>58</v>
-      </c>
-      <c r="J6" s="45">
-        <v>80</v>
-      </c>
-      <c r="K6" s="45">
-        <v>24</v>
-      </c>
-      <c r="L6" s="45">
-        <v>78</v>
-      </c>
-      <c r="M6" s="45">
-        <v>36</v>
-      </c>
-      <c r="N6" s="45">
-        <v>32</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="P6" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q6" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="R6" s="45" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="G7:N7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F4:N4"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="O3:R3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="E4:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6360,22 +7246,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -6440,7 +7326,7 @@
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="49" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6505,7 +7391,7 @@
       <c r="T3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="31"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6574,7 +7460,7 @@
         <f>TEXT(S4,"000")&amp;TEXT(O4," (000.0)")</f>
         <v>187 (186.5)</v>
       </c>
-      <c r="V4" s="31"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -6643,7 +7529,7 @@
         <f t="shared" ref="T5:T6" si="4">TEXT(S5,"000")&amp;TEXT(O5," (000.0)")</f>
         <v>277 (276.5)</v>
       </c>
-      <c r="V5" s="31"/>
+      <c r="V5" s="49"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -6712,7 +7598,7 @@
         <f t="shared" si="4"/>
         <v>277 (276.5)</v>
       </c>
-      <c r="V6" s="31"/>
+      <c r="V6" s="49"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -6765,36 +7651,36 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
-      <c r="V7" s="31"/>
+      <c r="V7" s="49"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O8" s="2"/>
-      <c r="V8" s="31"/>
+      <c r="V8" s="49"/>
     </row>
     <row r="9" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="V9" s="31"/>
+      <c r="V9" s="49"/>
     </row>
     <row r="10" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -6853,7 +7739,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="V10" s="31"/>
+      <c r="V10" s="49"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -6916,7 +7802,7 @@
       <c r="T11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="31"/>
+      <c r="V11" s="49"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -6985,7 +7871,7 @@
         <f>TEXT(S12,"000")&amp;TEXT(O12," (000.0)")</f>
         <v>007 (006.5)</v>
       </c>
-      <c r="V12" s="31"/>
+      <c r="V12" s="49"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -7054,7 +7940,7 @@
         <f t="shared" ref="T13:T14" si="9">TEXT(S13,"000")&amp;TEXT(O13," (000.0)")</f>
         <v>277 (276.5)</v>
       </c>
-      <c r="V13" s="31"/>
+      <c r="V13" s="49"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -7123,7 +8009,7 @@
         <f t="shared" si="9"/>
         <v>277 (276.5)</v>
       </c>
-      <c r="V14" s="31"/>
+      <c r="V14" s="49"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -7176,35 +8062,35 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
-      <c r="V15" s="31"/>
+      <c r="V15" s="49"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V16" s="31"/>
+      <c r="V16" s="49"/>
     </row>
     <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="V17" s="31"/>
+      <c r="V17" s="49"/>
     </row>
     <row r="18" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -7263,7 +8149,7 @@
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="V18" s="31"/>
+      <c r="V18" s="49"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -7326,7 +8212,7 @@
       <c r="T19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="31"/>
+      <c r="V19" s="49"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -7395,7 +8281,7 @@
         <f>TEXT(S20,"000")&amp;TEXT(O20," (000.0)")</f>
         <v>277 (276.5)</v>
       </c>
-      <c r="V20" s="31"/>
+      <c r="V20" s="49"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -7464,7 +8350,7 @@
         <f t="shared" ref="T21:T22" si="14">TEXT(S21,"000")&amp;TEXT(O21," (000.0)")</f>
         <v>277 (276.5)</v>
       </c>
-      <c r="V21" s="31"/>
+      <c r="V21" s="49"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -7533,7 +8419,7 @@
         <f t="shared" si="14"/>
         <v>277 (276.5)</v>
       </c>
-      <c r="V22" s="31"/>
+      <c r="V22" s="49"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -7586,25 +8472,25 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
-      <c r="V23" s="31"/>
+      <c r="V23" s="49"/>
     </row>
     <row r="25" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -7730,7 +8616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:B20"/>
     </sheetView>
   </sheetViews>
@@ -7741,18 +8627,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="54"/>
+      <c r="D1" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -7761,14 +8647,14 @@
       <c r="B2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="D2" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -7777,20 +8663,20 @@
       <c r="B3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
@@ -7799,25 +8685,25 @@
       <c r="B5" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="54"/>
     </row>
     <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -7825,7 +8711,7 @@
         <v>88</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -7833,7 +8719,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -7845,25 +8731,25 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="54"/>
     </row>
     <row r="17" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -7878,9 +8764,599 @@
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I5"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="8" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+    </row>
+    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="35">
+        <v>75</v>
+      </c>
+      <c r="D4" s="35">
+        <v>100</v>
+      </c>
+      <c r="E4" s="35">
+        <v>150</v>
+      </c>
+      <c r="F4" s="35">
+        <v>200</v>
+      </c>
+      <c r="G4" s="35">
+        <v>250</v>
+      </c>
+      <c r="H4" s="36">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="38">
+        <v>380</v>
+      </c>
+      <c r="D5" s="38">
+        <v>506</v>
+      </c>
+      <c r="E5" s="38">
+        <v>760</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1013</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1266</v>
+      </c>
+      <c r="H5" s="39">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="41">
+        <v>532</v>
+      </c>
+      <c r="D6" s="41">
+        <v>709</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1063</v>
+      </c>
+      <c r="F6" s="41">
+        <v>1418</v>
+      </c>
+      <c r="G6" s="41">
+        <v>1772</v>
+      </c>
+      <c r="H6" s="42">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
+    </row>
+    <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
+    </row>
+    <row r="24" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="8" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+    </row>
+    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="35">
+        <v>75</v>
+      </c>
+      <c r="D4" s="35">
+        <v>100</v>
+      </c>
+      <c r="E4" s="35">
+        <v>150</v>
+      </c>
+      <c r="F4" s="35">
+        <v>200</v>
+      </c>
+      <c r="G4" s="35">
+        <v>250</v>
+      </c>
+      <c r="H4" s="36">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="38">
+        <v>380</v>
+      </c>
+      <c r="D5" s="38">
+        <v>506</v>
+      </c>
+      <c r="E5" s="38">
+        <v>760</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1013</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1266</v>
+      </c>
+      <c r="H5" s="39">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="41">
+        <v>532</v>
+      </c>
+      <c r="D6" s="41">
+        <v>709</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1063</v>
+      </c>
+      <c r="F6" s="41">
+        <v>1418</v>
+      </c>
+      <c r="G6" s="41">
+        <v>1772</v>
+      </c>
+      <c r="H6" s="42">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
+    </row>
+    <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+    </row>
+    <row r="17" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+    </row>
+    <row r="21" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B19:H20"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H16"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7888,6 +9364,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C9E3FF6E969AEF49BD2B0D6FDF33E5C7" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="12bf052dbb020e3b992804157f0479e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4c9c0edc00d0634d6ec3063483afed3">
     <xsd:element name="properties">
@@ -8001,33 +9492,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90290F34-72CC-4012-9D88-1F6A546E96C3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C70426-12C4-4FF4-9C49-C674202D216B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8042,9 +9510,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C70426-12C4-4FF4-9C49-C674202D216B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90290F34-72CC-4012-9D88-1F6A546E96C3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/03_AD/MNMG/MNMG_CODING_TABLE_RNAV.xlsx
+++ b/03_AD/MNMG/MNMG_CODING_TABLE_RNAV.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="6870" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="6870" tabRatio="599" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="EMARI_STAR" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="257">
   <si>
     <t>Designator</t>
   </si>
@@ -723,12 +723,6 @@
     <t>TAGOM1 TRANSITIONS</t>
   </si>
   <si>
-    <t>JULIR1</t>
-  </si>
-  <si>
-    <t>JULIR1 TRANSITIONS</t>
-  </si>
-  <si>
     <t>POZOL</t>
   </si>
   <si>
@@ -738,9 +732,6 @@
     <t>TUKOR</t>
   </si>
   <si>
-    <t>LIBIS</t>
-  </si>
-  <si>
     <t>TALAG</t>
   </si>
   <si>
@@ -748,9 +739,6 @@
   </si>
   <si>
     <t>BTO</t>
-  </si>
-  <si>
-    <t>From ILESU turn LEFT on heading 309° to LIBIS</t>
   </si>
   <si>
     <t>From ILESU turn LEFT on heading 338° to TALAG</t>
@@ -1038,6 +1026,21 @@
   <si>
     <t>0861046.1465W</t>
   </si>
+  <si>
+    <t>7.0% V/v (fpm)</t>
+  </si>
+  <si>
+    <t>ILESU1</t>
+  </si>
+  <si>
+    <t>ILESU1 TRANSITIONS</t>
+  </si>
+  <si>
+    <t>LIBIS1</t>
+  </si>
+  <si>
+    <t>Maintain runway heading to MGA 5 DME and 2000' or above then climbing turn LEFT to JULIR then on heading 329° to ILESU then turn LEFT on heading 309° to LIBIS</t>
+  </si>
 </sst>
 </file>
 
@@ -1046,7 +1049,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1114,6 +1117,13 @@
       <name val="Wingdings 2"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1450,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1594,6 +1604,21 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1612,6 +1637,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1629,15 +1663,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1701,15 +1726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2055,7 +2071,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection sqref="A1:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2081,28 +2097,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="A1" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="54" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2160,23 +2176,23 @@
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="U2" s="49"/>
+      <c r="U2" s="54"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>12</v>
@@ -2198,7 +2214,7 @@
         <v>12</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>69</v>
@@ -2221,11 +2237,11 @@
       <c r="S3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="49"/>
+      <c r="U3" s="54"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>123</v>
@@ -2242,17 +2258,17 @@
       <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10" t="str">
+      <c r="G4" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>314 (312.4)</v>
+        <v>290 (289.2)</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="J4" s="86">
+        <v>242</v>
+      </c>
+      <c r="J4" s="50">
         <v>60.9</v>
       </c>
       <c r="K4" s="10">
@@ -2265,7 +2281,7 @@
         <v>69</v>
       </c>
       <c r="N4" s="28">
-        <v>312.39999999999998</v>
+        <v>289.2</v>
       </c>
       <c r="O4" s="16" t="str">
         <f t="shared" ref="O4:O10" si="1">MID(L3,1,1)</f>
@@ -2281,17 +2297,17 @@
       </c>
       <c r="R4" s="17">
         <f t="shared" ref="R4:R10" si="4">N4-Q4</f>
-        <v>313.66666666666663</v>
+        <v>290.46666666666664</v>
       </c>
       <c r="S4" s="16" t="str">
         <f t="shared" ref="S4:S10" si="5">TEXT(R4,"000")&amp;TEXT(N4," (000.0)")</f>
-        <v>314 (312.4)</v>
-      </c>
-      <c r="U4" s="49"/>
+        <v>290 (289.2)</v>
+      </c>
+      <c r="U4" s="54"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>124</v>
@@ -2300,7 +2316,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>132</v>
@@ -2316,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J5" s="13">
         <v>10</v>
@@ -2353,11 +2369,11 @@
         <f t="shared" si="5"/>
         <v>313 (312.4)</v>
       </c>
-      <c r="U5" s="49"/>
+      <c r="U5" s="54"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>125</v>
@@ -2365,11 +2381,11 @@
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="85" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>237</v>
+      <c r="D6" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>233</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>12</v>
@@ -2382,7 +2398,7 @@
         <v>65</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J6" s="13">
         <v>2</v>
@@ -2419,11 +2435,11 @@
         <f t="shared" si="5"/>
         <v>313 (312.4)</v>
       </c>
-      <c r="U6" s="49"/>
+      <c r="U6" s="54"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>126</v>
@@ -2448,7 +2464,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J7" s="13">
         <v>5</v>
@@ -2485,11 +2501,11 @@
         <f t="shared" si="5"/>
         <v>277 (276.3)</v>
       </c>
-      <c r="U7" s="49"/>
+      <c r="U7" s="54"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>62</v>
@@ -2514,7 +2530,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J8" s="13">
         <v>8</v>
@@ -2551,11 +2567,11 @@
         <f t="shared" si="5"/>
         <v>007 (006.3)</v>
       </c>
-      <c r="U8" s="49"/>
+      <c r="U8" s="54"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>63</v>
@@ -2617,11 +2633,11 @@
         <f t="shared" si="5"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U9" s="49"/>
+      <c r="U9" s="54"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>64</v>
@@ -2646,7 +2662,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J10" s="13">
         <v>5</v>
@@ -2683,34 +2699,34 @@
         <f t="shared" si="5"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U10" s="49"/>
+      <c r="U10" s="54"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U11" s="49"/>
+      <c r="U11" s="54"/>
     </row>
     <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
+      <c r="A12" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="U12" s="49"/>
+      <c r="U12" s="54"/>
     </row>
     <row r="13" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2766,23 +2782,23 @@
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="U13" s="49"/>
+      <c r="U13" s="54"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>12</v>
@@ -2804,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>69</v>
@@ -2827,11 +2843,11 @@
       <c r="S14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="49"/>
+      <c r="U14" s="54"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>123</v>
@@ -2856,9 +2872,9 @@
         <v>24</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="J15" s="86">
+        <v>242</v>
+      </c>
+      <c r="J15" s="50">
         <v>56.9</v>
       </c>
       <c r="K15" s="10">
@@ -2893,11 +2909,11 @@
         <f t="shared" ref="S15:S21" si="12">TEXT(R15,"000")&amp;TEXT(N15," (000.0)")</f>
         <v>304 (302.4)</v>
       </c>
-      <c r="U15" s="49"/>
+      <c r="U15" s="54"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>124</v>
@@ -2922,7 +2938,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J16" s="13">
         <v>10</v>
@@ -2959,11 +2975,11 @@
         <f t="shared" si="12"/>
         <v>313 (312.4)</v>
       </c>
-      <c r="U16" s="49"/>
+      <c r="U16" s="54"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>125</v>
@@ -2971,11 +2987,11 @@
       <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="85" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" s="85" t="s">
-        <v>237</v>
+      <c r="D17" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>233</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>12</v>
@@ -2988,7 +3004,7 @@
         <v>65</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J17" s="13">
         <v>2</v>
@@ -3025,11 +3041,11 @@
         <f t="shared" si="12"/>
         <v>313 (312.4)</v>
       </c>
-      <c r="U17" s="49"/>
+      <c r="U17" s="54"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>126</v>
@@ -3054,7 +3070,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J18" s="13">
         <v>5</v>
@@ -3091,11 +3107,11 @@
         <f t="shared" si="12"/>
         <v>277 (276.3)</v>
       </c>
-      <c r="U18" s="49"/>
+      <c r="U18" s="54"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>62</v>
@@ -3120,7 +3136,7 @@
         <v>24</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J19" s="13">
         <v>8</v>
@@ -3157,11 +3173,11 @@
         <f t="shared" si="12"/>
         <v>007 (006.3)</v>
       </c>
-      <c r="U19" s="49"/>
+      <c r="U19" s="54"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>63</v>
@@ -3223,11 +3239,11 @@
         <f t="shared" si="12"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U20" s="49"/>
+      <c r="U20" s="54"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>64</v>
@@ -3252,7 +3268,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J21" s="13">
         <v>5</v>
@@ -3289,14 +3305,14 @@
         <f t="shared" si="12"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U21" s="49"/>
+      <c r="U21" s="54"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N22" s="29"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3324,24 +3340,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
@@ -3422,110 +3438,110 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
+      <c r="B8" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="B9" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
+      <c r="B12" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
+      <c r="B13" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
     </row>
     <row r="15" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="B16" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
+      <c r="B17" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="83"/>
     </row>
     <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H18"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H10"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3547,24 +3563,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
@@ -3645,35 +3661,35 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
+      <c r="B8" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="B9" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3721,21 +3737,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -3797,7 +3813,7 @@
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="54" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3858,7 +3874,7 @@
       <c r="S3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="49"/>
+      <c r="U3" s="54"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -3887,7 +3903,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J4" s="10">
         <v>56.7</v>
@@ -3924,7 +3940,7 @@
         <f>TEXT(R4,"000")&amp;TEXT(N4," (000.0)")</f>
         <v>216 (215.2)</v>
       </c>
-      <c r="U4" s="49"/>
+      <c r="U4" s="54"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -3953,7 +3969,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J5" s="13">
         <v>5</v>
@@ -3990,7 +4006,7 @@
         <f>TEXT(R5,"000")&amp;TEXT(N5," (000.0)")</f>
         <v>277 (276.3)</v>
       </c>
-      <c r="U5" s="49"/>
+      <c r="U5" s="54"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -4019,7 +4035,7 @@
         <v>65</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J6" s="13">
         <v>5</v>
@@ -4056,7 +4072,7 @@
         <f>TEXT(R6,"000")&amp;TEXT(N6," (000.0)")</f>
         <v>277 (276.3)</v>
       </c>
-      <c r="U6" s="49"/>
+      <c r="U6" s="54"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -4085,7 +4101,7 @@
         <v>65</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J7" s="13">
         <v>8</v>
@@ -4122,7 +4138,7 @@
         <f t="shared" ref="S7:S8" si="7">TEXT(R7,"000")&amp;TEXT(N7," (000.0)")</f>
         <v>187 (186.3)</v>
       </c>
-      <c r="U7" s="49"/>
+      <c r="U7" s="54"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -4188,7 +4204,7 @@
         <f t="shared" si="7"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U8" s="49"/>
+      <c r="U8" s="54"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -4217,7 +4233,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J9" s="13">
         <v>5</v>
@@ -4254,34 +4270,34 @@
         <f t="shared" ref="S9" si="10">TEXT(R9,"000")&amp;TEXT(N9," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="U9" s="49"/>
+      <c r="U9" s="54"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U10" s="49"/>
+      <c r="U10" s="54"/>
     </row>
     <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-      <c r="U11" s="49"/>
+      <c r="U11" s="54"/>
     </row>
     <row r="12" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -4337,7 +4353,7 @@
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="U12" s="49"/>
+      <c r="U12" s="54"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -4398,7 +4414,7 @@
       <c r="S13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="49"/>
+      <c r="U13" s="54"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -4427,7 +4443,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J14" s="10">
         <v>39.700000000000003</v>
@@ -4464,7 +4480,7 @@
         <f>TEXT(R14,"000")&amp;TEXT(N14," (000.0)")</f>
         <v>248 (246.9)</v>
       </c>
-      <c r="U14" s="49"/>
+      <c r="U14" s="54"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -4493,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J15" s="13">
         <v>5</v>
@@ -4530,7 +4546,7 @@
         <f>TEXT(R15,"000")&amp;TEXT(N15," (000.0)")</f>
         <v>277 (276.3)</v>
       </c>
-      <c r="U15" s="49"/>
+      <c r="U15" s="54"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -4559,7 +4575,7 @@
         <v>65</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J16" s="13">
         <v>5</v>
@@ -4596,7 +4612,7 @@
         <f>TEXT(R16,"000")&amp;TEXT(N16," (000.0)")</f>
         <v>277 (276.3)</v>
       </c>
-      <c r="U16" s="49"/>
+      <c r="U16" s="54"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -4625,7 +4641,7 @@
         <v>65</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J17" s="13">
         <v>8</v>
@@ -4662,7 +4678,7 @@
         <f t="shared" ref="S17:S19" si="17">TEXT(R17,"000")&amp;TEXT(N17," (000.0)")</f>
         <v>187 (186.3)</v>
       </c>
-      <c r="U17" s="49"/>
+      <c r="U17" s="54"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -4728,7 +4744,7 @@
         <f t="shared" si="17"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U18" s="49"/>
+      <c r="U18" s="54"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -4757,7 +4773,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J19" s="13">
         <v>5</v>
@@ -4794,34 +4810,34 @@
         <f t="shared" si="17"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U19" s="49"/>
+      <c r="U19" s="54"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U20" s="49"/>
+      <c r="U20" s="54"/>
     </row>
     <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="U21" s="49"/>
+      <c r="U21" s="54"/>
     </row>
     <row r="22" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -4877,7 +4893,7 @@
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="U22" s="49"/>
+      <c r="U22" s="54"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -5031,7 +5047,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J25" s="10">
         <v>39.700000000000003</v>
@@ -5096,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J26" s="13">
         <v>5</v>
@@ -5161,7 +5177,7 @@
         <v>65</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J27" s="13">
         <v>5</v>
@@ -5226,7 +5242,7 @@
         <v>65</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J28" s="13">
         <v>8</v>
@@ -5356,7 +5372,7 @@
         <v>12</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J30" s="13">
         <v>5</v>
@@ -5440,21 +5456,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -5516,7 +5532,7 @@
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="54" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5576,7 +5592,7 @@
       <c r="S3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="49"/>
+      <c r="U3" s="54"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -5642,7 +5658,7 @@
         <f>TEXT(R4,"000")&amp;TEXT(N4," (000.0)")</f>
         <v>167 (166.2)</v>
       </c>
-      <c r="U4" s="49"/>
+      <c r="U4" s="54"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -5708,7 +5724,7 @@
         <f>TEXT(R5,"000")&amp;TEXT(N5," (000.0)")</f>
         <v>125 (124.3)</v>
       </c>
-      <c r="U5" s="49"/>
+      <c r="U5" s="54"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -5774,7 +5790,7 @@
         <f t="shared" ref="S6:S7" si="2">TEXT(R6,"000")&amp;TEXT(N6," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="U6" s="49"/>
+      <c r="U6" s="54"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -5840,34 +5856,34 @@
         <f t="shared" si="2"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U7" s="49"/>
+      <c r="U7" s="54"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U8" s="49"/>
+      <c r="U8" s="54"/>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="U9" s="49"/>
+      <c r="U9" s="54"/>
     </row>
     <row r="10" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -5923,7 +5939,7 @@
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="U10" s="49"/>
+      <c r="U10" s="54"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -5983,7 +5999,7 @@
       <c r="S11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="49"/>
+      <c r="U11" s="54"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -6049,7 +6065,7 @@
         <f>TEXT(R12,"000")&amp;TEXT(N12," (000.0)")</f>
         <v>125 (124.3)</v>
       </c>
-      <c r="U12" s="49"/>
+      <c r="U12" s="54"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -6115,7 +6131,7 @@
         <f>TEXT(R13,"000")&amp;TEXT(N13," (000.0)")</f>
         <v>125 (124.3)</v>
       </c>
-      <c r="U13" s="49"/>
+      <c r="U13" s="54"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -6181,7 +6197,7 @@
         <f t="shared" ref="S14:S15" si="6">TEXT(R14,"000")&amp;TEXT(N14," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="U14" s="49"/>
+      <c r="U14" s="54"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -6247,28 +6263,28 @@
         <f t="shared" si="6"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="U15" s="49"/>
+      <c r="U15" s="54"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U16" s="49"/>
+      <c r="U16" s="54"/>
     </row>
     <row r="17" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U17" s="49"/>
+      <c r="U17" s="54"/>
     </row>
     <row r="18" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U18" s="49"/>
+      <c r="U18" s="54"/>
     </row>
     <row r="19" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U19" s="49"/>
+      <c r="U19" s="54"/>
     </row>
     <row r="20" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U20" s="49"/>
+      <c r="U20" s="54"/>
     </row>
     <row r="21" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U21" s="49"/>
+      <c r="U21" s="54"/>
     </row>
     <row r="22" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U22" s="49"/>
+      <c r="U22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6288,7 +6304,7 @@
   </sheetPr>
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:N8"/>
     </sheetView>
   </sheetViews>
@@ -6316,22 +6332,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -6396,7 +6412,7 @@
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="54" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6426,7 +6442,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J3" s="30">
         <v>5</v>
@@ -6461,7 +6477,7 @@
       <c r="T3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="49"/>
+      <c r="V3" s="54"/>
     </row>
     <row r="4" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6474,10 +6490,10 @@
         <v>138</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -6490,7 +6506,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J4" s="12">
         <v>3.3</v>
@@ -6530,7 +6546,7 @@
         <f>TEXT(S4,"000")&amp;TEXT(O4," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="V4" s="49"/>
+      <c r="V4" s="54"/>
     </row>
     <row r="5" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -6543,10 +6559,10 @@
         <v>139</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -6559,7 +6575,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J5" s="13">
         <v>3</v>
@@ -6599,7 +6615,7 @@
         <f t="shared" ref="T5:T6" si="4">TEXT(S5,"000")&amp;TEXT(O5," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="V5" s="49"/>
+      <c r="V5" s="54"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -6612,10 +6628,10 @@
         <v>140</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>14</v>
@@ -6668,7 +6684,7 @@
         <f t="shared" si="4"/>
         <v>097 (096.3)</v>
       </c>
-      <c r="V6" s="49"/>
+      <c r="V6" s="54"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -6697,7 +6713,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>12</v>
@@ -6737,7 +6753,7 @@
         <f t="shared" ref="T7" si="8">TEXT(S7,"000")&amp;TEXT(O7," (000.0)")</f>
         <v>097 (096.3)</v>
       </c>
-      <c r="V7" s="49"/>
+      <c r="V7" s="54"/>
     </row>
     <row r="8" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -6765,7 +6781,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>12</v>
@@ -6805,7 +6821,7 @@
         <f t="shared" ref="T8" si="12">TEXT(S8,"000")&amp;TEXT(O8," (000.0)")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V8" s="49"/>
+      <c r="V8" s="54"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O9" s="3"/>
@@ -6814,7 +6830,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="V9" s="49"/>
+      <c r="V9" s="54"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O10" s="3"/>
@@ -6823,7 +6839,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="V10" s="49"/>
+      <c r="V10" s="54"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O11" s="3"/>
@@ -6832,7 +6848,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="V11" s="49"/>
+      <c r="V11" s="54"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O12" s="3"/>
@@ -6841,7 +6857,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="V12" s="49"/>
+      <c r="V12" s="54"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O13" s="3"/>
@@ -6850,7 +6866,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="V13" s="49"/>
+      <c r="V13" s="54"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O14" s="3"/>
@@ -6859,7 +6875,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="V14" s="49"/>
+      <c r="V14" s="54"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O15" s="3"/>
@@ -6868,7 +6884,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="V15" s="49"/>
+      <c r="V15" s="54"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O16" s="3"/>
@@ -6877,7 +6893,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="V16" s="49"/>
+      <c r="V16" s="54"/>
     </row>
     <row r="17" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O17" s="3"/>
@@ -6886,7 +6902,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="V17" s="49"/>
+      <c r="V17" s="54"/>
     </row>
     <row r="18" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O18" s="3"/>
@@ -6895,7 +6911,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="V18" s="49"/>
+      <c r="V18" s="54"/>
     </row>
     <row r="19" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O19" s="3"/>
@@ -6904,7 +6920,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="V19" s="49"/>
+      <c r="V19" s="54"/>
     </row>
     <row r="20" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O20" s="3"/>
@@ -6913,7 +6929,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="V20" s="49"/>
+      <c r="V20" s="54"/>
     </row>
     <row r="21" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O21" s="3"/>
@@ -6922,7 +6938,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="V21" s="49"/>
+      <c r="V21" s="54"/>
     </row>
     <row r="22" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O22" s="3"/>
@@ -6931,7 +6947,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="V22" s="49"/>
+      <c r="V22" s="54"/>
     </row>
     <row r="23" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O23" s="3"/>
@@ -6940,7 +6956,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="V23" s="49"/>
+      <c r="V23" s="54"/>
     </row>
     <row r="24" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O24" s="3"/>
@@ -7023,63 +7039,63 @@
       <c r="D3" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="51">
+      <c r="B4" s="56">
         <v>10</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
       <c r="R4" s="33" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="51"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33" t="s">
         <v>157</v>
@@ -7119,17 +7135,17 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="51">
+      <c r="B6" s="56">
         <v>28</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51" t="s">
+      <c r="E6" s="57"/>
+      <c r="F6" s="56" t="s">
         <v>156</v>
       </c>
       <c r="G6" s="33">
@@ -7170,21 +7186,21 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="51"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
       <c r="Q7" s="33"/>
@@ -7246,22 +7262,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -7326,7 +7342,7 @@
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="54" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7391,7 +7407,7 @@
       <c r="T3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="49"/>
+      <c r="V3" s="54"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -7460,7 +7476,7 @@
         <f>TEXT(S4,"000")&amp;TEXT(O4," (000.0)")</f>
         <v>187 (186.5)</v>
       </c>
-      <c r="V4" s="49"/>
+      <c r="V4" s="54"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -7529,7 +7545,7 @@
         <f t="shared" ref="T5:T6" si="4">TEXT(S5,"000")&amp;TEXT(O5," (000.0)")</f>
         <v>277 (276.5)</v>
       </c>
-      <c r="V5" s="49"/>
+      <c r="V5" s="54"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -7598,7 +7614,7 @@
         <f t="shared" si="4"/>
         <v>277 (276.5)</v>
       </c>
-      <c r="V6" s="49"/>
+      <c r="V6" s="54"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -7651,36 +7667,36 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
-      <c r="V7" s="49"/>
+      <c r="V7" s="54"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O8" s="2"/>
-      <c r="V8" s="49"/>
+      <c r="V8" s="54"/>
     </row>
     <row r="9" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="V9" s="49"/>
+      <c r="V9" s="54"/>
     </row>
     <row r="10" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -7739,7 +7755,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="V10" s="49"/>
+      <c r="V10" s="54"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -7802,7 +7818,7 @@
       <c r="T11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="49"/>
+      <c r="V11" s="54"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -7871,7 +7887,7 @@
         <f>TEXT(S12,"000")&amp;TEXT(O12," (000.0)")</f>
         <v>007 (006.5)</v>
       </c>
-      <c r="V12" s="49"/>
+      <c r="V12" s="54"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -7940,7 +7956,7 @@
         <f t="shared" ref="T13:T14" si="9">TEXT(S13,"000")&amp;TEXT(O13," (000.0)")</f>
         <v>277 (276.5)</v>
       </c>
-      <c r="V13" s="49"/>
+      <c r="V13" s="54"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -8009,7 +8025,7 @@
         <f t="shared" si="9"/>
         <v>277 (276.5)</v>
       </c>
-      <c r="V14" s="49"/>
+      <c r="V14" s="54"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -8062,35 +8078,35 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
-      <c r="V15" s="49"/>
+      <c r="V15" s="54"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V16" s="49"/>
+      <c r="V16" s="54"/>
     </row>
     <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="V17" s="49"/>
+      <c r="V17" s="54"/>
     </row>
     <row r="18" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -8149,7 +8165,7 @@
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="V18" s="49"/>
+      <c r="V18" s="54"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -8212,7 +8228,7 @@
       <c r="T19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="49"/>
+      <c r="V19" s="54"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -8281,7 +8297,7 @@
         <f>TEXT(S20,"000")&amp;TEXT(O20," (000.0)")</f>
         <v>277 (276.5)</v>
       </c>
-      <c r="V20" s="49"/>
+      <c r="V20" s="54"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -8350,7 +8366,7 @@
         <f t="shared" ref="T21:T22" si="14">TEXT(S21,"000")&amp;TEXT(O21," (000.0)")</f>
         <v>277 (276.5)</v>
       </c>
-      <c r="V21" s="49"/>
+      <c r="V21" s="54"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -8419,7 +8435,7 @@
         <f t="shared" si="14"/>
         <v>277 (276.5)</v>
       </c>
-      <c r="V22" s="49"/>
+      <c r="V22" s="54"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -8472,25 +8488,25 @@
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
-      <c r="V23" s="49"/>
+      <c r="V23" s="54"/>
     </row>
     <row r="25" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
     </row>
     <row r="26" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -8627,18 +8643,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="59"/>
+      <c r="D1" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -8647,14 +8663,14 @@
       <c r="B2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="D2" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -8663,20 +8679,20 @@
       <c r="B3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
@@ -8685,18 +8701,18 @@
       <c r="B5" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
@@ -8731,25 +8747,25 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="59"/>
     </row>
     <row r="17" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -8775,10 +8791,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8788,24 +8804,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
@@ -8855,7 +8871,7 @@
     </row>
     <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C6" s="41">
         <v>532</v>
@@ -8886,85 +8902,85 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="B9" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
+        <v>183</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+        <v>184</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
+        <v>185</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
     </row>
     <row r="15" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -8976,124 +8992,143 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="B16" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
+      <c r="B17" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="83"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81"/>
+      <c r="B19" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
+    </row>
+    <row r="22" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="81"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="81"/>
-    </row>
-    <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="40" t="s">
+      <c r="C22" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
-    </row>
-    <row r="24" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="70"/>
+    </row>
+    <row r="23" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
+    </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="B25" s="81" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C23:H23"/>
+  <mergeCells count="16">
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H26"/>
+    <mergeCell ref="C22:H22"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C28:H28"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B17:H18"/>
     <mergeCell ref="B19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C22:H22"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H10"/>
     <mergeCell ref="B11:H11"/>
@@ -9121,24 +9156,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
@@ -9219,59 +9254,59 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
+      <c r="B8" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="B9" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
+      <c r="B11" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+        <v>202</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -9283,67 +9318,67 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
+      <c r="B14" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="76" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
+      <c r="B15" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
     </row>
     <row r="17" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="B18" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
+      <c r="B19" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
